--- a/Excel/MonsterWaveConfig.xlsx
+++ b/Excel/MonsterWaveConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -1044,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J26"/>
+  <dimension ref="C3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1414,7 +1414,7 @@
         <v>1001</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -1440,246 +1440,12 @@
         <v>1001</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2000</v>
       </c>
       <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1001</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1001</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>2000</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1001</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>2000</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1001</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>2000</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1001</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
-        <v>2000</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1001</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>2000</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1001</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>2000</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1001</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>2000</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1001</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
-        <v>2000</v>
-      </c>
-      <c r="J26">
         <v>2</v>
       </c>
     </row>

--- a/Excel/MonsterWaveConfig.xlsx
+++ b/Excel/MonsterWaveConfig.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="C3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1414,7 +1414,7 @@
         <v>1001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>2000</v>

--- a/Excel/MonsterWaveConfig.xlsx
+++ b/Excel/MonsterWaveConfig.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="C3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H17">
         <v>2</v>

--- a/Excel/MonsterWaveConfig.xlsx
+++ b/Excel/MonsterWaveConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -1044,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J17"/>
+  <dimension ref="C3:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1001</v>
+        <v>6001</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1001</v>
+        <v>6001</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1001</v>
+        <v>6001</v>
       </c>
       <c r="H8">
         <v>34</v>
@@ -1229,7 +1229,7 @@
         <v>1000</v>
       </c>
       <c r="G9">
-        <v>1002</v>
+        <v>6002</v>
       </c>
       <c r="H9">
         <v>18</v>
@@ -1255,7 +1255,7 @@
         <v>7000</v>
       </c>
       <c r="G10">
-        <v>1003</v>
+        <v>6003</v>
       </c>
       <c r="H10">
         <v>27</v>
@@ -1281,7 +1281,7 @@
         <v>8000</v>
       </c>
       <c r="G11">
-        <v>1001</v>
+        <v>6001</v>
       </c>
       <c r="H11">
         <v>26</v>
@@ -1307,7 +1307,7 @@
         <v>1000</v>
       </c>
       <c r="G12">
-        <v>1003</v>
+        <v>6003</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -1333,7 +1333,7 @@
         <v>8000</v>
       </c>
       <c r="G13">
-        <v>1001</v>
+        <v>6001</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -1359,7 +1359,7 @@
         <v>1000</v>
       </c>
       <c r="G14">
-        <v>1002</v>
+        <v>6002</v>
       </c>
       <c r="H14">
         <v>6</v>
@@ -1385,7 +1385,7 @@
         <v>1000</v>
       </c>
       <c r="G15">
-        <v>1003</v>
+        <v>6003</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1002</v>
+        <v>6001</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1437,16 +1437,302 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1002</v>
+        <v>6001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>2000</v>
       </c>
       <c r="J17">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>9000</v>
+      </c>
+      <c r="G18">
+        <v>6002</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>6003</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>2000</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>9000</v>
+      </c>
+      <c r="G20">
+        <v>6004</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>2000</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>6005</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>9000</v>
+      </c>
+      <c r="G22">
+        <v>6006</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>2000</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>6007</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>2000</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>9000</v>
+      </c>
+      <c r="G24">
+        <v>6007</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>2000</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>6007</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>2000</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>9000</v>
+      </c>
+      <c r="G26">
+        <v>6007</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>2000</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>6007</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <v>2000</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>9000</v>
+      </c>
+      <c r="G28">
+        <v>6007</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>2000</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/MonsterWaveConfig.xlsx
+++ b/Excel/MonsterWaveConfig.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="C3:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>6001</v>
+        <v>6002</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1000</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6001</v>
+        <v>6003</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1000</v>
@@ -1229,10 +1229,10 @@
         <v>1000</v>
       </c>
       <c r="G9">
-        <v>6002</v>
+        <v>6004</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>6001</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2000</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6001</v>
+        <v>6002</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2000</v>
@@ -1460,13 +1460,13 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>6002</v>
+        <v>6003</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2000</v>
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>6003</v>
+        <v>6004</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2000</v>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>6004</v>
